--- a/TestsForNN.xlsx
+++ b/TestsForNN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biaco\Documents\AA-Projeto1-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7B06C1-92F8-4971-AF88-3562DFAB7C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36656AC3-E876-4998-ACE5-43BBA2593097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{4F881D6F-E29F-4FDB-B849-47811DDC3998}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="126">
   <si>
     <t>Training Set</t>
   </si>
@@ -400,6 +400,24 @@
   </si>
   <si>
     <t>https://imgur.com/a/2l5p3BE</t>
+  </si>
+  <si>
+    <t>https://imgur.com/a/Lyt2bqV</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/hptYLZS.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/a/UNWGpT4</t>
+  </si>
+  <si>
+    <t>blob:https://imgur.com/b5341669-bf61-4984-ad18-61591ace4125</t>
+  </si>
+  <si>
+    <t>https://imgur.com/a/C7vhiPM</t>
+  </si>
+  <si>
+    <t>https://imgur.com/a/5TEJmFK</t>
   </si>
 </sst>
 </file>
@@ -3039,7 +3057,7 @@
   <dimension ref="A3:O15"/>
   <sheetViews>
     <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:Q16"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3497,7 +3515,7 @@
   <dimension ref="B2:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3624,10 +3642,18 @@
       <c r="K5" s="22">
         <v>0.01</v>
       </c>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="41"/>
+      <c r="L5" s="54">
+        <v>0.49451097804391198</v>
+      </c>
+      <c r="M5" s="54">
+        <v>0.47904191616766401</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="O5" s="41" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="6" spans="2:15" ht="15.75" thickBot="1">
       <c r="B6" s="23" t="s">
@@ -3660,10 +3686,18 @@
       <c r="K6" s="66">
         <v>0.03</v>
       </c>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="41"/>
+      <c r="L6" s="54">
+        <v>0.65568862275449102</v>
+      </c>
+      <c r="M6" s="54">
+        <v>0.640718562874251</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="O6" s="41" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="7" spans="2:15" ht="15.75" thickBot="1">
       <c r="B7" s="23" t="s">
@@ -3696,10 +3730,18 @@
       <c r="K7" s="66">
         <v>0.03</v>
       </c>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="41"/>
+      <c r="L7" s="54">
+        <v>0.70958083832335295</v>
+      </c>
+      <c r="M7" s="54">
+        <v>0.64670658682634696</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="O7" s="41" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1">
       <c r="B8" s="23" t="s">
@@ -3852,6 +3894,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="O4" r:id="rId1" xr:uid="{B603E073-2614-46F8-96D5-B5D7E9F805FD}"/>
+    <hyperlink ref="N5" r:id="rId2" xr:uid="{811E6500-1B5A-4E84-8B19-E3DF069B4ADE}"/>
+    <hyperlink ref="O5" r:id="rId3" xr:uid="{8BF55F7C-0D97-4309-B041-1AA2D2B3CA33}"/>
+    <hyperlink ref="N6" r:id="rId4" xr:uid="{FC3A3BF5-681D-4EEC-8ED9-02BCAB8FF07B}"/>
+    <hyperlink ref="N7" r:id="rId5" xr:uid="{FF71121B-5864-4323-B954-82BE45989AAD}"/>
+    <hyperlink ref="O7" r:id="rId6" xr:uid="{6FC11934-BED9-4510-A8A4-31B93641B06E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
